--- a/data/B/experiment4/avocadEx4.xlsx
+++ b/data/B/experiment4/avocadEx4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koohong\Documents\MIDS\MIDS241\mids-w241-fa2020-fp\data\B\experiment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DC1733-C4F8-4951-B864-FEF9A344B356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B635C072-8326-4B1F-9F24-5B240B84A97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Pretreatment weight</t>
   </si>
@@ -45,16 +45,64 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>T8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E13"/>
+      <selection activeCell="M2" sqref="M2:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,7 +421,7 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +434,50 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,8 +493,32 @@
       <c r="E2">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>72</v>
+      </c>
+      <c r="J2">
+        <v>44</v>
+      </c>
+      <c r="K2">
+        <v>75</v>
+      </c>
+      <c r="L2">
+        <v>43</v>
+      </c>
+      <c r="M2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -420,8 +534,32 @@
       <c r="E3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>72</v>
+      </c>
+      <c r="J3">
+        <v>44</v>
+      </c>
+      <c r="K3">
+        <v>75</v>
+      </c>
+      <c r="L3">
+        <v>43</v>
+      </c>
+      <c r="M3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -437,8 +575,32 @@
       <c r="E4">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>72</v>
+      </c>
+      <c r="J4">
+        <v>44</v>
+      </c>
+      <c r="K4">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>43</v>
+      </c>
+      <c r="M4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -454,8 +616,32 @@
       <c r="E5">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>72</v>
+      </c>
+      <c r="J5">
+        <v>44</v>
+      </c>
+      <c r="K5">
+        <v>75</v>
+      </c>
+      <c r="L5">
+        <v>43</v>
+      </c>
+      <c r="M5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -471,8 +657,32 @@
       <c r="E6">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>72</v>
+      </c>
+      <c r="H6">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>72</v>
+      </c>
+      <c r="J6">
+        <v>44</v>
+      </c>
+      <c r="K6">
+        <v>75</v>
+      </c>
+      <c r="L6">
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -488,8 +698,32 @@
       <c r="E7">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>72</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>75</v>
+      </c>
+      <c r="L7">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -505,8 +739,32 @@
       <c r="E8">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <v>44</v>
+      </c>
+      <c r="K8">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -522,8 +780,32 @@
       <c r="E9">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>72</v>
+      </c>
+      <c r="H9">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>44</v>
+      </c>
+      <c r="K9">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>43</v>
+      </c>
+      <c r="M9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -539,8 +821,32 @@
       <c r="E10">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>72</v>
+      </c>
+      <c r="H10">
+        <v>44</v>
+      </c>
+      <c r="I10">
+        <v>72</v>
+      </c>
+      <c r="J10">
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
+      </c>
+      <c r="L10">
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -556,8 +862,32 @@
       <c r="E11">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>44</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>75</v>
+      </c>
+      <c r="L11">
+        <v>43</v>
+      </c>
+      <c r="M11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -573,8 +903,32 @@
       <c r="E12">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>75</v>
+      </c>
+      <c r="L12">
+        <v>43</v>
+      </c>
+      <c r="M12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -590,8 +944,33 @@
       <c r="E13">
         <v>72</v>
       </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+      <c r="J13">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>75</v>
+      </c>
+      <c r="L13">
+        <v>43</v>
+      </c>
+      <c r="M13">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/B/experiment4/avocadEx4.xlsx
+++ b/data/B/experiment4/avocadEx4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koohong\Documents\MIDS\MIDS241\mids-w241-fa2020-fp\data\B\experiment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B635C072-8326-4B1F-9F24-5B240B84A97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3776063-A6F6-4974-AF81-E32B3A50A22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M13"/>
+      <selection activeCell="N2" sqref="N2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +517,12 @@
       <c r="M2">
         <v>73</v>
       </c>
+      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -558,6 +564,12 @@
       <c r="M3">
         <v>73</v>
       </c>
+      <c r="N3">
+        <v>45</v>
+      </c>
+      <c r="O3">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -599,6 +611,12 @@
       <c r="M4">
         <v>73</v>
       </c>
+      <c r="N4">
+        <v>45</v>
+      </c>
+      <c r="O4">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -640,6 +658,12 @@
       <c r="M5">
         <v>73</v>
       </c>
+      <c r="N5">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -681,6 +705,12 @@
       <c r="M6">
         <v>73</v>
       </c>
+      <c r="N6">
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -722,6 +752,12 @@
       <c r="M7">
         <v>73</v>
       </c>
+      <c r="N7">
+        <v>45</v>
+      </c>
+      <c r="O7">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -763,6 +799,12 @@
       <c r="M8">
         <v>73</v>
       </c>
+      <c r="N8">
+        <v>45</v>
+      </c>
+      <c r="O8">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -804,6 +846,12 @@
       <c r="M9">
         <v>73</v>
       </c>
+      <c r="N9">
+        <v>45</v>
+      </c>
+      <c r="O9">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -845,6 +893,12 @@
       <c r="M10">
         <v>73</v>
       </c>
+      <c r="N10">
+        <v>45</v>
+      </c>
+      <c r="O10">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -886,6 +940,12 @@
       <c r="M11">
         <v>73</v>
       </c>
+      <c r="N11">
+        <v>45</v>
+      </c>
+      <c r="O11">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -927,6 +987,12 @@
       <c r="M12">
         <v>73</v>
       </c>
+      <c r="N12">
+        <v>45</v>
+      </c>
+      <c r="O12">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -967,6 +1033,12 @@
       </c>
       <c r="M13">
         <v>73</v>
+      </c>
+      <c r="N13">
+        <v>45</v>
+      </c>
+      <c r="O13">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/B/experiment4/avocadEx4.xlsx
+++ b/data/B/experiment4/avocadEx4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koohong\Documents\MIDS\MIDS241\mids-w241-fa2020-fp\data\B\experiment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3776063-A6F6-4974-AF81-E32B3A50A22D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D77C6D-50AB-48DD-BEAE-B88552527C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Pretreatment weight</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>T8</t>
+  </si>
+  <si>
+    <t>After</t>
   </si>
 </sst>
 </file>
@@ -410,74 +413,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,46 +492,61 @@
         <v>226</v>
       </c>
       <c r="C2">
+        <v>207</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>46</v>
       </c>
-      <c r="E2">
-        <v>72</v>
-      </c>
       <c r="F2">
+        <v>72</v>
+      </c>
+      <c r="G2">
         <v>42</v>
       </c>
-      <c r="G2">
-        <v>72</v>
-      </c>
       <c r="H2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K2">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L2">
+        <v>75</v>
+      </c>
+      <c r="M2">
         <v>43</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>73</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>45</v>
       </c>
-      <c r="O2">
-        <v>72</v>
+      <c r="P2">
+        <v>72</v>
+      </c>
+      <c r="Q2">
+        <v>44</v>
+      </c>
+      <c r="R2">
+        <v>75</v>
+      </c>
+      <c r="S2">
+        <v>48</v>
+      </c>
+      <c r="T2">
+        <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,46 +554,61 @@
         <v>208</v>
       </c>
       <c r="C3">
+        <v>187</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>46</v>
       </c>
-      <c r="E3">
-        <v>72</v>
-      </c>
       <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
         <v>42</v>
       </c>
-      <c r="G3">
-        <v>72</v>
-      </c>
       <c r="H3">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I3">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L3">
+        <v>75</v>
+      </c>
+      <c r="M3">
         <v>43</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>73</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>45</v>
       </c>
-      <c r="O3">
-        <v>72</v>
+      <c r="P3">
+        <v>72</v>
+      </c>
+      <c r="Q3">
+        <v>44</v>
+      </c>
+      <c r="R3">
+        <v>75</v>
+      </c>
+      <c r="S3">
+        <v>48</v>
+      </c>
+      <c r="T3">
+        <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -579,46 +616,61 @@
         <v>227</v>
       </c>
       <c r="C4">
+        <v>206</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>46</v>
       </c>
-      <c r="E4">
-        <v>72</v>
-      </c>
       <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
         <v>42</v>
       </c>
-      <c r="G4">
-        <v>72</v>
-      </c>
       <c r="H4">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I4">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K4">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L4">
+        <v>75</v>
+      </c>
+      <c r="M4">
         <v>43</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>73</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>45</v>
       </c>
-      <c r="O4">
-        <v>72</v>
+      <c r="P4">
+        <v>72</v>
+      </c>
+      <c r="Q4">
+        <v>44</v>
+      </c>
+      <c r="R4">
+        <v>75</v>
+      </c>
+      <c r="S4">
+        <v>48</v>
+      </c>
+      <c r="T4">
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -626,46 +678,61 @@
         <v>201</v>
       </c>
       <c r="C5">
+        <v>186</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>46</v>
       </c>
-      <c r="E5">
-        <v>72</v>
-      </c>
       <c r="F5">
+        <v>72</v>
+      </c>
+      <c r="G5">
         <v>42</v>
       </c>
-      <c r="G5">
-        <v>72</v>
-      </c>
       <c r="H5">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L5">
+        <v>75</v>
+      </c>
+      <c r="M5">
         <v>43</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>73</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>45</v>
       </c>
-      <c r="O5">
-        <v>72</v>
+      <c r="P5">
+        <v>72</v>
+      </c>
+      <c r="Q5">
+        <v>44</v>
+      </c>
+      <c r="R5">
+        <v>75</v>
+      </c>
+      <c r="S5">
+        <v>48</v>
+      </c>
+      <c r="T5">
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -673,46 +740,61 @@
         <v>200</v>
       </c>
       <c r="C6">
+        <v>182</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>46</v>
       </c>
-      <c r="E6">
-        <v>72</v>
-      </c>
       <c r="F6">
+        <v>72</v>
+      </c>
+      <c r="G6">
         <v>42</v>
       </c>
-      <c r="G6">
-        <v>72</v>
-      </c>
       <c r="H6">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K6">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L6">
+        <v>75</v>
+      </c>
+      <c r="M6">
         <v>43</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>73</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>45</v>
       </c>
-      <c r="O6">
-        <v>72</v>
+      <c r="P6">
+        <v>72</v>
+      </c>
+      <c r="Q6">
+        <v>44</v>
+      </c>
+      <c r="R6">
+        <v>75</v>
+      </c>
+      <c r="S6">
+        <v>48</v>
+      </c>
+      <c r="T6">
+        <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -720,46 +802,61 @@
         <v>203</v>
       </c>
       <c r="C7">
+        <v>184</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>46</v>
       </c>
-      <c r="E7">
-        <v>72</v>
-      </c>
       <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
         <v>42</v>
       </c>
-      <c r="G7">
-        <v>72</v>
-      </c>
       <c r="H7">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I7">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K7">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7">
         <v>43</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>73</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>45</v>
       </c>
-      <c r="O7">
-        <v>72</v>
+      <c r="P7">
+        <v>72</v>
+      </c>
+      <c r="Q7">
+        <v>44</v>
+      </c>
+      <c r="R7">
+        <v>75</v>
+      </c>
+      <c r="S7">
+        <v>48</v>
+      </c>
+      <c r="T7">
+        <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -767,46 +864,61 @@
         <v>255</v>
       </c>
       <c r="C8">
+        <v>236</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>46</v>
       </c>
-      <c r="E8">
-        <v>72</v>
-      </c>
       <c r="F8">
+        <v>72</v>
+      </c>
+      <c r="G8">
         <v>42</v>
       </c>
-      <c r="G8">
-        <v>72</v>
-      </c>
       <c r="H8">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L8">
+        <v>75</v>
+      </c>
+      <c r="M8">
         <v>43</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>73</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>45</v>
       </c>
-      <c r="O8">
-        <v>72</v>
+      <c r="P8">
+        <v>72</v>
+      </c>
+      <c r="Q8">
+        <v>44</v>
+      </c>
+      <c r="R8">
+        <v>75</v>
+      </c>
+      <c r="S8">
+        <v>48</v>
+      </c>
+      <c r="T8">
+        <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -814,46 +926,61 @@
         <v>199</v>
       </c>
       <c r="C9">
+        <v>184</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>46</v>
       </c>
-      <c r="E9">
-        <v>72</v>
-      </c>
       <c r="F9">
+        <v>72</v>
+      </c>
+      <c r="G9">
         <v>42</v>
       </c>
-      <c r="G9">
-        <v>72</v>
-      </c>
       <c r="H9">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I9">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K9">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L9">
+        <v>75</v>
+      </c>
+      <c r="M9">
         <v>43</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>73</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>45</v>
       </c>
-      <c r="O9">
-        <v>72</v>
+      <c r="P9">
+        <v>72</v>
+      </c>
+      <c r="Q9">
+        <v>44</v>
+      </c>
+      <c r="R9">
+        <v>75</v>
+      </c>
+      <c r="S9">
+        <v>48</v>
+      </c>
+      <c r="T9">
+        <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -861,46 +988,61 @@
         <v>214</v>
       </c>
       <c r="C10">
+        <v>195</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>46</v>
       </c>
-      <c r="E10">
-        <v>72</v>
-      </c>
       <c r="F10">
+        <v>72</v>
+      </c>
+      <c r="G10">
         <v>42</v>
       </c>
-      <c r="G10">
-        <v>72</v>
-      </c>
       <c r="H10">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L10">
+        <v>75</v>
+      </c>
+      <c r="M10">
         <v>43</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>73</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>45</v>
       </c>
-      <c r="O10">
-        <v>72</v>
+      <c r="P10">
+        <v>72</v>
+      </c>
+      <c r="Q10">
+        <v>44</v>
+      </c>
+      <c r="R10">
+        <v>75</v>
+      </c>
+      <c r="S10">
+        <v>48</v>
+      </c>
+      <c r="T10">
+        <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -908,46 +1050,61 @@
         <v>200</v>
       </c>
       <c r="C11">
+        <v>188</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>46</v>
       </c>
-      <c r="E11">
-        <v>72</v>
-      </c>
       <c r="F11">
+        <v>72</v>
+      </c>
+      <c r="G11">
         <v>42</v>
       </c>
-      <c r="G11">
-        <v>72</v>
-      </c>
       <c r="H11">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I11">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L11">
+        <v>75</v>
+      </c>
+      <c r="M11">
         <v>43</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>73</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>45</v>
       </c>
-      <c r="O11">
-        <v>72</v>
+      <c r="P11">
+        <v>72</v>
+      </c>
+      <c r="Q11">
+        <v>44</v>
+      </c>
+      <c r="R11">
+        <v>75</v>
+      </c>
+      <c r="S11">
+        <v>48</v>
+      </c>
+      <c r="T11">
+        <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -955,46 +1112,61 @@
         <v>200</v>
       </c>
       <c r="C12">
+        <v>181</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>46</v>
       </c>
-      <c r="E12">
-        <v>72</v>
-      </c>
       <c r="F12">
+        <v>72</v>
+      </c>
+      <c r="G12">
         <v>42</v>
       </c>
-      <c r="G12">
-        <v>72</v>
-      </c>
       <c r="H12">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I12">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K12">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L12">
+        <v>75</v>
+      </c>
+      <c r="M12">
         <v>43</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>73</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>45</v>
       </c>
-      <c r="O12">
-        <v>72</v>
+      <c r="P12">
+        <v>72</v>
+      </c>
+      <c r="Q12">
+        <v>44</v>
+      </c>
+      <c r="R12">
+        <v>75</v>
+      </c>
+      <c r="S12">
+        <v>48</v>
+      </c>
+      <c r="T12">
+        <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1002,43 +1174,58 @@
         <v>218</v>
       </c>
       <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>46</v>
       </c>
-      <c r="E13">
-        <v>72</v>
-      </c>
       <c r="F13">
+        <v>72</v>
+      </c>
+      <c r="G13">
         <v>42</v>
       </c>
-      <c r="G13">
-        <v>72</v>
-      </c>
       <c r="H13">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L13">
+        <v>75</v>
+      </c>
+      <c r="M13">
         <v>43</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>73</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>45</v>
       </c>
-      <c r="O13">
-        <v>72</v>
+      <c r="P13">
+        <v>72</v>
+      </c>
+      <c r="Q13">
+        <v>44</v>
+      </c>
+      <c r="R13">
+        <v>75</v>
+      </c>
+      <c r="S13">
+        <v>48</v>
+      </c>
+      <c r="T13">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
